--- a/Code/Results/Cases/Case_4_82/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_82/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.018444655753506</v>
+        <v>1.065169162970301</v>
       </c>
       <c r="D2">
-        <v>1.035808638124124</v>
+        <v>1.067213479391637</v>
       </c>
       <c r="E2">
-        <v>1.035925006257159</v>
+        <v>1.077738578085972</v>
       </c>
       <c r="F2">
-        <v>1.042175453721374</v>
+        <v>1.082623260000702</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048963441008161</v>
+        <v>1.043626918840186</v>
       </c>
       <c r="J2">
-        <v>1.040087346147388</v>
+        <v>1.07012565635057</v>
       </c>
       <c r="K2">
-        <v>1.046790663405704</v>
+        <v>1.069921945177952</v>
       </c>
       <c r="L2">
-        <v>1.046905547640656</v>
+        <v>1.080419088038693</v>
       </c>
       <c r="M2">
-        <v>1.053076898264057</v>
+        <v>1.085290995118362</v>
       </c>
       <c r="N2">
-        <v>1.015885713347131</v>
+        <v>1.026879362773818</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.025733054654289</v>
+        <v>1.066647031909996</v>
       </c>
       <c r="D3">
-        <v>1.04154462315042</v>
+        <v>1.068386248650872</v>
       </c>
       <c r="E3">
-        <v>1.042702079146208</v>
+        <v>1.079165028368179</v>
       </c>
       <c r="F3">
-        <v>1.048881758251758</v>
+        <v>1.084031719245346</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050955665198086</v>
+        <v>1.043943249152399</v>
       </c>
       <c r="J3">
-        <v>1.045545972341896</v>
+        <v>1.07125652186067</v>
       </c>
       <c r="K3">
-        <v>1.051672157649161</v>
+        <v>1.070909567378499</v>
       </c>
       <c r="L3">
-        <v>1.052816247010832</v>
+        <v>1.081661804069418</v>
       </c>
       <c r="M3">
-        <v>1.058925177113167</v>
+        <v>1.08651669651655</v>
       </c>
       <c r="N3">
-        <v>1.017824881581021</v>
+        <v>1.027271049835224</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.030315276120434</v>
+        <v>1.067602337643052</v>
       </c>
       <c r="D4">
-        <v>1.045152640239516</v>
+        <v>1.069143997951613</v>
       </c>
       <c r="E4">
-        <v>1.046968587587843</v>
+        <v>1.080087383030484</v>
       </c>
       <c r="F4">
-        <v>1.05310364152274</v>
+        <v>1.084942377958715</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052195497273309</v>
+        <v>1.044146084143764</v>
       </c>
       <c r="J4">
-        <v>1.048974066407655</v>
+        <v>1.071986849688108</v>
       </c>
       <c r="K4">
-        <v>1.054735022999613</v>
+        <v>1.071546936660056</v>
       </c>
       <c r="L4">
-        <v>1.05653135831702</v>
+        <v>1.08246474038502</v>
       </c>
       <c r="M4">
-        <v>1.062600766720138</v>
+        <v>1.087308563333756</v>
       </c>
       <c r="N4">
-        <v>1.01904119760207</v>
+        <v>1.027523662580099</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.032211331165112</v>
+        <v>1.068003721110786</v>
       </c>
       <c r="D5">
-        <v>1.046645913105097</v>
+        <v>1.06946229388834</v>
       </c>
       <c r="E5">
-        <v>1.048735314949309</v>
+        <v>1.080474989592401</v>
       </c>
       <c r="F5">
-        <v>1.05485186107765</v>
+        <v>1.085325054324697</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052705417487394</v>
+        <v>1.04423091405485</v>
       </c>
       <c r="J5">
-        <v>1.050391600010669</v>
+        <v>1.072293544577684</v>
       </c>
       <c r="K5">
-        <v>1.056000840469931</v>
+        <v>1.071814486339789</v>
       </c>
       <c r="L5">
-        <v>1.05806832019407</v>
+        <v>1.082802016119561</v>
       </c>
       <c r="M5">
-        <v>1.064121300346973</v>
+        <v>1.0876411709813</v>
       </c>
       <c r="N5">
-        <v>1.019543766243113</v>
+        <v>1.027629662491107</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.032527957599853</v>
+        <v>1.068071102025419</v>
       </c>
       <c r="D6">
-        <v>1.046895294541095</v>
+        <v>1.069515721938299</v>
       </c>
       <c r="E6">
-        <v>1.04903041969024</v>
+        <v>1.080540061717111</v>
       </c>
       <c r="F6">
-        <v>1.055143872358035</v>
+        <v>1.085389297867973</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052790385930749</v>
+        <v>1.044245131497016</v>
       </c>
       <c r="J6">
-        <v>1.050628258874648</v>
+        <v>1.072345020488832</v>
       </c>
       <c r="K6">
-        <v>1.056212128732772</v>
+        <v>1.071859385741306</v>
       </c>
       <c r="L6">
-        <v>1.058324961565108</v>
+        <v>1.082858629995085</v>
       </c>
       <c r="M6">
-        <v>1.064375193705458</v>
+        <v>1.087697000212143</v>
       </c>
       <c r="N6">
-        <v>1.019627647450654</v>
+        <v>1.02764744874397</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.030340728209359</v>
+        <v>1.067607701833118</v>
       </c>
       <c r="D7">
-        <v>1.045172684326823</v>
+        <v>1.069148252061432</v>
       </c>
       <c r="E7">
-        <v>1.046992298528882</v>
+        <v>1.080092562836484</v>
       </c>
       <c r="F7">
-        <v>1.053127104202432</v>
+        <v>1.084947491939338</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052202354653698</v>
+        <v>1.044147219379872</v>
       </c>
       <c r="J7">
-        <v>1.048993098844358</v>
+        <v>1.071990949070716</v>
       </c>
       <c r="K7">
-        <v>1.054752021200124</v>
+        <v>1.071550513240412</v>
       </c>
       <c r="L7">
-        <v>1.056551991301746</v>
+        <v>1.08246924816905</v>
       </c>
       <c r="M7">
-        <v>1.062621179482975</v>
+        <v>1.0873130087996</v>
       </c>
       <c r="N7">
-        <v>1.019047946860283</v>
+        <v>1.027525079734273</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.020936611100876</v>
+        <v>1.065668821162009</v>
       </c>
       <c r="D8">
-        <v>1.037769367431627</v>
+        <v>1.067610054712247</v>
       </c>
       <c r="E8">
-        <v>1.038240875530629</v>
+        <v>1.078220792226955</v>
       </c>
       <c r="F8">
-        <v>1.04446714807127</v>
+        <v>1.083099405183253</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049647231962465</v>
+        <v>1.043734208451894</v>
       </c>
       <c r="J8">
-        <v>1.041954440552822</v>
+        <v>1.070508133912896</v>
       </c>
       <c r="K8">
-        <v>1.048460924233303</v>
+        <v>1.070256068609202</v>
       </c>
       <c r="L8">
-        <v>1.048926614646554</v>
+        <v>1.08083931778508</v>
       </c>
       <c r="M8">
-        <v>1.055076676710325</v>
+        <v>1.085705487012321</v>
       </c>
       <c r="N8">
-        <v>1.016549300310665</v>
+        <v>1.027011908987229</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.003254053622491</v>
+        <v>1.062244526114509</v>
       </c>
       <c r="D9">
-        <v>1.023868761554012</v>
+        <v>1.06489086387414</v>
       </c>
       <c r="E9">
-        <v>1.021835957073678</v>
+        <v>1.074917248388542</v>
       </c>
       <c r="F9">
-        <v>1.028233683409087</v>
+        <v>1.079837184750526</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044743154657693</v>
+        <v>1.042992183139508</v>
       </c>
       <c r="J9">
-        <v>1.028692423855445</v>
+        <v>1.06788416389505</v>
       </c>
       <c r="K9">
-        <v>1.036586100886932</v>
+        <v>1.067961989329671</v>
       </c>
       <c r="L9">
-        <v>1.034584423766767</v>
+        <v>1.077957889274508</v>
       </c>
       <c r="M9">
-        <v>1.040884714530209</v>
+        <v>1.082863092454155</v>
       </c>
       <c r="N9">
-        <v>1.011830269403655</v>
+        <v>1.026101178212415</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9905834769858</v>
+        <v>1.059956069141445</v>
       </c>
       <c r="D10">
-        <v>1.013929977069413</v>
+        <v>1.063071968772416</v>
       </c>
       <c r="E10">
-        <v>1.01012114866489</v>
+        <v>1.072711027930265</v>
       </c>
       <c r="F10">
-        <v>1.016642227027861</v>
+        <v>1.077658247124888</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04116576825799</v>
+        <v>1.042487829605995</v>
       </c>
       <c r="J10">
-        <v>1.019175746608625</v>
+        <v>1.066127130169553</v>
       </c>
       <c r="K10">
-        <v>1.0280521953247</v>
+        <v>1.066423551330736</v>
       </c>
       <c r="L10">
-        <v>1.024310035972608</v>
+        <v>1.076030393676277</v>
       </c>
       <c r="M10">
-        <v>1.030717364504289</v>
+        <v>1.080961323122769</v>
       </c>
       <c r="N10">
-        <v>1.008437973451097</v>
+        <v>1.025489592374622</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9848524916148876</v>
+        <v>1.058963727990521</v>
       </c>
       <c r="D11">
-        <v>1.009441892538363</v>
+        <v>1.062282861823243</v>
       </c>
       <c r="E11">
-        <v>1.004833556006746</v>
+        <v>1.071754720659648</v>
       </c>
       <c r="F11">
-        <v>1.011410764479378</v>
+        <v>1.076713692687348</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039533797003399</v>
+        <v>1.042267124745111</v>
       </c>
       <c r="J11">
-        <v>1.014869289803094</v>
+        <v>1.065364420186706</v>
       </c>
       <c r="K11">
-        <v>1.024187918520299</v>
+        <v>1.065755189130886</v>
       </c>
       <c r="L11">
-        <v>1.019664890608476</v>
+        <v>1.075194147017711</v>
       </c>
       <c r="M11">
-        <v>1.026120651720187</v>
+        <v>1.080136147706824</v>
       </c>
       <c r="N11">
-        <v>1.00690188321977</v>
+        <v>1.025223697448806</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9826835442502952</v>
+        <v>1.058594906740055</v>
       </c>
       <c r="D12">
-        <v>1.007744631244635</v>
+        <v>1.061989519897094</v>
       </c>
       <c r="E12">
-        <v>1.002834228414036</v>
+        <v>1.071399348939148</v>
       </c>
       <c r="F12">
-        <v>1.009432751612502</v>
+        <v>1.076362677540509</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038914182676881</v>
+        <v>1.042184795273188</v>
       </c>
       <c r="J12">
-        <v>1.013239288418938</v>
+        <v>1.065080824285194</v>
       </c>
       <c r="K12">
-        <v>1.022724945391998</v>
+        <v>1.065506593070953</v>
       </c>
       <c r="L12">
-        <v>1.017907329779195</v>
+        <v>1.07488327720637</v>
       </c>
       <c r="M12">
-        <v>1.024381439118758</v>
+        <v>1.079829380122</v>
       </c>
       <c r="N12">
-        <v>1.006320354311312</v>
+        <v>1.02512476905163</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9831506706822638</v>
+        <v>1.05867403029894</v>
       </c>
       <c r="D13">
-        <v>1.008110108532364</v>
+        <v>1.062052453338138</v>
       </c>
       <c r="E13">
-        <v>1.003264739440816</v>
+        <v>1.071475584571679</v>
       </c>
       <c r="F13">
-        <v>1.009858668484003</v>
+        <v>1.076437979075317</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039047716532745</v>
+        <v>1.04220247108595</v>
       </c>
       <c r="J13">
-        <v>1.01359034809082</v>
+        <v>1.065141669847705</v>
       </c>
       <c r="K13">
-        <v>1.023040046031704</v>
+        <v>1.065559933077975</v>
       </c>
       <c r="L13">
-        <v>1.018285833673199</v>
+        <v>1.074949971270532</v>
       </c>
       <c r="M13">
-        <v>1.024755990252013</v>
+        <v>1.079895194700446</v>
       </c>
       <c r="N13">
-        <v>1.006445605043642</v>
+        <v>1.025145996941947</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9846740475312497</v>
+        <v>1.05893324567483</v>
       </c>
       <c r="D14">
-        <v>1.009302227544785</v>
+        <v>1.062258618860097</v>
       </c>
       <c r="E14">
-        <v>1.004669029239486</v>
+        <v>1.071725348755105</v>
       </c>
       <c r="F14">
-        <v>1.011247989737563</v>
+        <v>1.076684681080086</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039482859430753</v>
+        <v>1.042260326512997</v>
       </c>
       <c r="J14">
-        <v>1.014735188923935</v>
+        <v>1.06534098403902</v>
       </c>
       <c r="K14">
-        <v>1.02406756570224</v>
+        <v>1.065734646997004</v>
       </c>
       <c r="L14">
-        <v>1.019520282455003</v>
+        <v>1.075168455568082</v>
       </c>
       <c r="M14">
-        <v>1.025977552646127</v>
+        <v>1.080110795554212</v>
       </c>
       <c r="N14">
-        <v>1.006854042729575</v>
+        <v>1.025215523335935</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9856072116195966</v>
+        <v>1.059092927235804</v>
       </c>
       <c r="D15">
-        <v>1.010032652407085</v>
+        <v>1.062385613284619</v>
       </c>
       <c r="E15">
-        <v>1.005529488061389</v>
+        <v>1.071879215763014</v>
       </c>
       <c r="F15">
-        <v>1.012099289479911</v>
+        <v>1.076836660197991</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039749155074894</v>
+        <v>1.042295926736019</v>
       </c>
       <c r="J15">
-        <v>1.01543645592139</v>
+        <v>1.065463749302343</v>
       </c>
       <c r="K15">
-        <v>1.024696925153722</v>
+        <v>1.065842249264692</v>
       </c>
       <c r="L15">
-        <v>1.020276522014505</v>
+        <v>1.075303037573926</v>
       </c>
       <c r="M15">
-        <v>1.02672590139979</v>
+        <v>1.0802435996379</v>
       </c>
       <c r="N15">
-        <v>1.00710421524872</v>
+        <v>1.025258339164755</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9909583856017808</v>
+        <v>1.060021896902317</v>
       </c>
       <c r="D16">
-        <v>1.014223745281012</v>
+        <v>1.063124306882058</v>
       </c>
       <c r="E16">
-        <v>1.010467293064616</v>
+        <v>1.072774473287852</v>
       </c>
       <c r="F16">
-        <v>1.016984708215345</v>
+        <v>1.07772091122013</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041272249549367</v>
+        <v>1.042502428099097</v>
       </c>
       <c r="J16">
-        <v>1.019457434013601</v>
+        <v>1.066177708154072</v>
       </c>
       <c r="K16">
-        <v>1.028304910546503</v>
+        <v>1.066467861392006</v>
       </c>
       <c r="L16">
-        <v>1.024613964280949</v>
+        <v>1.076085857800451</v>
       </c>
       <c r="M16">
-        <v>1.031018126121419</v>
+        <v>1.081016051056741</v>
       </c>
       <c r="N16">
-        <v>1.008538431798422</v>
+        <v>1.025507216159794</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9942472536127357</v>
+        <v>1.060604228389394</v>
       </c>
       <c r="D17">
-        <v>1.016801658220774</v>
+        <v>1.063587261096189</v>
       </c>
       <c r="E17">
-        <v>1.013505096292685</v>
+        <v>1.073335772580632</v>
       </c>
       <c r="F17">
-        <v>1.019990416440546</v>
+        <v>1.078275290273239</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042204795274207</v>
+        <v>1.042631339474225</v>
       </c>
       <c r="J17">
-        <v>1.021928310601736</v>
+        <v>1.066625042319981</v>
       </c>
       <c r="K17">
-        <v>1.030521370089695</v>
+        <v>1.066859696727048</v>
       </c>
       <c r="L17">
-        <v>1.027280404511848</v>
+        <v>1.076576460119445</v>
       </c>
       <c r="M17">
-        <v>1.033656790525188</v>
+        <v>1.081500131089885</v>
       </c>
       <c r="N17">
-        <v>1.009419511149395</v>
+        <v>1.025663041262156</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.996142255988796</v>
+        <v>1.06094375559702</v>
       </c>
       <c r="D18">
-        <v>1.018287688939406</v>
+        <v>1.063857148786213</v>
       </c>
       <c r="E18">
-        <v>1.015256470643719</v>
+        <v>1.073663072989896</v>
       </c>
       <c r="F18">
-        <v>1.021723328285063</v>
+        <v>1.078598548343681</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042740802281259</v>
+        <v>1.042706307919535</v>
       </c>
       <c r="J18">
-        <v>1.023351800649261</v>
+        <v>1.06688578155918</v>
       </c>
       <c r="K18">
-        <v>1.03179804682896</v>
+        <v>1.067088034896889</v>
       </c>
       <c r="L18">
-        <v>1.028816953329437</v>
+        <v>1.076862463443307</v>
       </c>
       <c r="M18">
-        <v>1.035177335940853</v>
+        <v>1.081782323464912</v>
       </c>
       <c r="N18">
-        <v>1.009927009093289</v>
+        <v>1.025753827883322</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9967845423518514</v>
+        <v>1.0610595026094</v>
       </c>
       <c r="D19">
-        <v>1.018791467916886</v>
+        <v>1.063949148959247</v>
       </c>
       <c r="E19">
-        <v>1.015850247163248</v>
+        <v>1.073774657888241</v>
       </c>
       <c r="F19">
-        <v>1.022310851716534</v>
+        <v>1.078708753905997</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042922249009048</v>
+        <v>1.042731832388378</v>
       </c>
       <c r="J19">
-        <v>1.023834237392423</v>
+        <v>1.066974655993809</v>
       </c>
       <c r="K19">
-        <v>1.032230684645144</v>
+        <v>1.067165856369845</v>
       </c>
       <c r="L19">
-        <v>1.029337773495064</v>
+        <v>1.076959956783697</v>
       </c>
       <c r="M19">
-        <v>1.035692731638356</v>
+        <v>1.081878516244538</v>
       </c>
       <c r="N19">
-        <v>1.010098988117317</v>
+        <v>1.025784766269314</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9938968268678977</v>
+        <v>1.060541763946943</v>
       </c>
       <c r="D20">
-        <v>1.016526912152293</v>
+        <v>1.063537605594839</v>
       </c>
       <c r="E20">
-        <v>1.013181312081533</v>
+        <v>1.073275560452577</v>
       </c>
       <c r="F20">
-        <v>1.019670048649687</v>
+        <v>1.07821582122828</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042105568905288</v>
+        <v>1.042617531622165</v>
       </c>
       <c r="J20">
-        <v>1.021665059920791</v>
+        <v>1.066577066588469</v>
       </c>
       <c r="K20">
-        <v>1.03028525019072</v>
+        <v>1.066817678544626</v>
       </c>
       <c r="L20">
-        <v>1.026996277311052</v>
+        <v>1.076523839385776</v>
       </c>
       <c r="M20">
-        <v>1.033375622646401</v>
+        <v>1.08144821081836</v>
       </c>
       <c r="N20">
-        <v>1.009325649675669</v>
+        <v>1.025646333424462</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.984226590922051</v>
+        <v>1.058856919384868</v>
       </c>
       <c r="D21">
-        <v>1.008952032857366</v>
+        <v>1.06219791471091</v>
       </c>
       <c r="E21">
-        <v>1.004256500619203</v>
+        <v>1.071651803804158</v>
       </c>
       <c r="F21">
-        <v>1.01083985562961</v>
+        <v>1.076612038110059</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03935509973296</v>
+        <v>1.042243299204417</v>
       </c>
       <c r="J21">
-        <v>1.014398922429483</v>
+        <v>1.065282299068033</v>
       </c>
       <c r="K21">
-        <v>1.023765768074707</v>
+        <v>1.065683207432404</v>
       </c>
       <c r="L21">
-        <v>1.019157678528243</v>
+        <v>1.075104124352753</v>
       </c>
       <c r="M21">
-        <v>1.025618733156923</v>
+        <v>1.080047313719523</v>
       </c>
       <c r="N21">
-        <v>1.006734077918352</v>
+        <v>1.025195054064917</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9779118616481716</v>
+        <v>1.057796305045098</v>
       </c>
       <c r="D22">
-        <v>1.004013296201887</v>
+        <v>1.061354250323968</v>
       </c>
       <c r="E22">
-        <v>0.9984392322419791</v>
+        <v>1.070629974146045</v>
       </c>
       <c r="F22">
-        <v>1.005084805610174</v>
+        <v>1.075602714902509</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03754751123533</v>
+        <v>1.042005979328936</v>
       </c>
       <c r="J22">
-        <v>1.00965309785532</v>
+        <v>1.064466538282341</v>
       </c>
       <c r="K22">
-        <v>1.019505665964721</v>
+        <v>1.064967970669562</v>
       </c>
       <c r="L22">
-        <v>1.014041671783781</v>
+        <v>1.07421004048619</v>
       </c>
       <c r="M22">
-        <v>1.020556200056503</v>
+        <v>1.079165002924417</v>
       </c>
       <c r="N22">
-        <v>1.005040753374837</v>
+        <v>1.024910371796917</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9812829413547177</v>
+        <v>1.058358681190452</v>
       </c>
       <c r="D23">
-        <v>1.006649013925002</v>
+        <v>1.061801622223779</v>
       </c>
       <c r="E23">
-        <v>1.001543688941901</v>
+        <v>1.071171753761238</v>
       </c>
       <c r="F23">
-        <v>1.008155999240192</v>
+        <v>1.076137869450415</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03851352196713</v>
+        <v>1.042131979658578</v>
       </c>
       <c r="J23">
-        <v>1.012186676372846</v>
+        <v>1.064899150485322</v>
       </c>
       <c r="K23">
-        <v>1.021780106507431</v>
+        <v>1.065347317632425</v>
       </c>
       <c r="L23">
-        <v>1.016772522916162</v>
+        <v>1.0746841509462</v>
       </c>
       <c r="M23">
-        <v>1.023258487969527</v>
+        <v>1.07963287775225</v>
       </c>
       <c r="N23">
-        <v>1.00594479040051</v>
+        <v>1.025061377432855</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9940552414968505</v>
+        <v>1.06056998936305</v>
       </c>
       <c r="D24">
-        <v>1.016651112350095</v>
+        <v>1.063560043228949</v>
       </c>
       <c r="E24">
-        <v>1.013327679436966</v>
+        <v>1.073302768018343</v>
       </c>
       <c r="F24">
-        <v>1.019814871478902</v>
+        <v>1.078242693044957</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04215042946814</v>
+        <v>1.042623771486508</v>
       </c>
       <c r="J24">
-        <v>1.021784066179556</v>
+        <v>1.066598745322846</v>
       </c>
       <c r="K24">
-        <v>1.030391992343401</v>
+        <v>1.066836665410277</v>
       </c>
       <c r="L24">
-        <v>1.02712471988024</v>
+        <v>1.076547616914821</v>
       </c>
       <c r="M24">
-        <v>1.033502727417536</v>
+        <v>1.081471671859142</v>
       </c>
       <c r="N24">
-        <v>1.009368081413741</v>
+        <v>1.025653883297145</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.007970101885564</v>
+        <v>1.063130745655262</v>
       </c>
       <c r="D25">
-        <v>1.027573057977474</v>
+        <v>1.065594896230092</v>
       </c>
       <c r="E25">
-        <v>1.026204850239313</v>
+        <v>1.075771949209038</v>
       </c>
       <c r="F25">
-        <v>1.032556829762172</v>
+        <v>1.0806812501128</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046062228963362</v>
+        <v>1.043185712163715</v>
       </c>
       <c r="J25">
-        <v>1.032232185492239</v>
+        <v>1.068563862875653</v>
       </c>
       <c r="K25">
-        <v>1.039757902151061</v>
+        <v>1.068556641381309</v>
       </c>
       <c r="L25">
-        <v>1.038409546888433</v>
+        <v>1.078703938655867</v>
       </c>
       <c r="M25">
-        <v>1.044669923353663</v>
+        <v>1.083599103455468</v>
       </c>
       <c r="N25">
-        <v>1.013090962136015</v>
+        <v>1.026337398493371</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_82/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_82/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.065169162970301</v>
+        <v>1.018444655753506</v>
       </c>
       <c r="D2">
-        <v>1.067213479391637</v>
+        <v>1.035808638124124</v>
       </c>
       <c r="E2">
-        <v>1.077738578085972</v>
+        <v>1.035925006257159</v>
       </c>
       <c r="F2">
-        <v>1.082623260000702</v>
+        <v>1.042175453721374</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043626918840186</v>
+        <v>1.048963441008161</v>
       </c>
       <c r="J2">
-        <v>1.07012565635057</v>
+        <v>1.040087346147389</v>
       </c>
       <c r="K2">
-        <v>1.069921945177952</v>
+        <v>1.046790663405704</v>
       </c>
       <c r="L2">
-        <v>1.080419088038693</v>
+        <v>1.046905547640656</v>
       </c>
       <c r="M2">
-        <v>1.085290995118362</v>
+        <v>1.053076898264057</v>
       </c>
       <c r="N2">
-        <v>1.026879362773818</v>
+        <v>1.015885713347131</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.066647031909996</v>
+        <v>1.025733054654288</v>
       </c>
       <c r="D3">
-        <v>1.068386248650872</v>
+        <v>1.041544623150418</v>
       </c>
       <c r="E3">
-        <v>1.079165028368179</v>
+        <v>1.042702079146206</v>
       </c>
       <c r="F3">
-        <v>1.084031719245346</v>
+        <v>1.048881758251756</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043943249152399</v>
+        <v>1.050955665198085</v>
       </c>
       <c r="J3">
-        <v>1.07125652186067</v>
+        <v>1.045545972341894</v>
       </c>
       <c r="K3">
-        <v>1.070909567378499</v>
+        <v>1.051672157649159</v>
       </c>
       <c r="L3">
-        <v>1.081661804069418</v>
+        <v>1.05281624701083</v>
       </c>
       <c r="M3">
-        <v>1.08651669651655</v>
+        <v>1.058925177113165</v>
       </c>
       <c r="N3">
-        <v>1.027271049835224</v>
+        <v>1.01782488158102</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.067602337643052</v>
+        <v>1.030315276120435</v>
       </c>
       <c r="D4">
-        <v>1.069143997951613</v>
+        <v>1.045152640239517</v>
       </c>
       <c r="E4">
-        <v>1.080087383030484</v>
+        <v>1.046968587587844</v>
       </c>
       <c r="F4">
-        <v>1.084942377958715</v>
+        <v>1.053103641522741</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044146084143764</v>
+        <v>1.05219549727331</v>
       </c>
       <c r="J4">
-        <v>1.071986849688108</v>
+        <v>1.048974066407656</v>
       </c>
       <c r="K4">
-        <v>1.071546936660056</v>
+        <v>1.054735022999614</v>
       </c>
       <c r="L4">
-        <v>1.08246474038502</v>
+        <v>1.056531358317021</v>
       </c>
       <c r="M4">
-        <v>1.087308563333756</v>
+        <v>1.062600766720138</v>
       </c>
       <c r="N4">
-        <v>1.027523662580099</v>
+        <v>1.01904119760207</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.068003721110786</v>
+        <v>1.032211331165111</v>
       </c>
       <c r="D5">
-        <v>1.06946229388834</v>
+        <v>1.046645913105096</v>
       </c>
       <c r="E5">
-        <v>1.080474989592401</v>
+        <v>1.048735314949309</v>
       </c>
       <c r="F5">
-        <v>1.085325054324697</v>
+        <v>1.05485186107765</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04423091405485</v>
+        <v>1.052705417487394</v>
       </c>
       <c r="J5">
-        <v>1.072293544577684</v>
+        <v>1.050391600010669</v>
       </c>
       <c r="K5">
-        <v>1.071814486339789</v>
+        <v>1.05600084046993</v>
       </c>
       <c r="L5">
-        <v>1.082802016119561</v>
+        <v>1.058068320194069</v>
       </c>
       <c r="M5">
-        <v>1.0876411709813</v>
+        <v>1.064121300346973</v>
       </c>
       <c r="N5">
-        <v>1.027629662491107</v>
+        <v>1.019543766243113</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.068071102025419</v>
+        <v>1.032527957599853</v>
       </c>
       <c r="D6">
-        <v>1.069515721938299</v>
+        <v>1.046895294541094</v>
       </c>
       <c r="E6">
-        <v>1.080540061717111</v>
+        <v>1.049030419690239</v>
       </c>
       <c r="F6">
-        <v>1.085389297867973</v>
+        <v>1.055143872358035</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044245131497016</v>
+        <v>1.052790385930749</v>
       </c>
       <c r="J6">
-        <v>1.072345020488832</v>
+        <v>1.050628258874648</v>
       </c>
       <c r="K6">
-        <v>1.071859385741306</v>
+        <v>1.056212128732772</v>
       </c>
       <c r="L6">
-        <v>1.082858629995085</v>
+        <v>1.058324961565108</v>
       </c>
       <c r="M6">
-        <v>1.087697000212143</v>
+        <v>1.064375193705458</v>
       </c>
       <c r="N6">
-        <v>1.02764744874397</v>
+        <v>1.019627647450654</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.067607701833118</v>
+        <v>1.03034072820936</v>
       </c>
       <c r="D7">
-        <v>1.069148252061432</v>
+        <v>1.045172684326823</v>
       </c>
       <c r="E7">
-        <v>1.080092562836484</v>
+        <v>1.046992298528882</v>
       </c>
       <c r="F7">
-        <v>1.084947491939338</v>
+        <v>1.053127104202433</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044147219379872</v>
+        <v>1.052202354653698</v>
       </c>
       <c r="J7">
-        <v>1.071990949070716</v>
+        <v>1.048993098844358</v>
       </c>
       <c r="K7">
-        <v>1.071550513240412</v>
+        <v>1.054752021200124</v>
       </c>
       <c r="L7">
-        <v>1.08246924816905</v>
+        <v>1.056551991301747</v>
       </c>
       <c r="M7">
-        <v>1.0873130087996</v>
+        <v>1.062621179482975</v>
       </c>
       <c r="N7">
-        <v>1.027525079734273</v>
+        <v>1.019047946860283</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.065668821162009</v>
+        <v>1.020936611100874</v>
       </c>
       <c r="D8">
-        <v>1.067610054712247</v>
+        <v>1.037769367431625</v>
       </c>
       <c r="E8">
-        <v>1.078220792226955</v>
+        <v>1.038240875530627</v>
       </c>
       <c r="F8">
-        <v>1.083099405183253</v>
+        <v>1.044467148071268</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043734208451894</v>
+        <v>1.049647231962465</v>
       </c>
       <c r="J8">
-        <v>1.070508133912896</v>
+        <v>1.04195444055282</v>
       </c>
       <c r="K8">
-        <v>1.070256068609202</v>
+        <v>1.048460924233301</v>
       </c>
       <c r="L8">
-        <v>1.08083931778508</v>
+        <v>1.048926614646553</v>
       </c>
       <c r="M8">
-        <v>1.085705487012321</v>
+        <v>1.055076676710324</v>
       </c>
       <c r="N8">
-        <v>1.027011908987229</v>
+        <v>1.016549300310664</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.062244526114509</v>
+        <v>1.003254053622492</v>
       </c>
       <c r="D9">
-        <v>1.06489086387414</v>
+        <v>1.023868761554013</v>
       </c>
       <c r="E9">
-        <v>1.074917248388542</v>
+        <v>1.021835957073679</v>
       </c>
       <c r="F9">
-        <v>1.079837184750526</v>
+        <v>1.028233683409087</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042992183139508</v>
+        <v>1.044743154657693</v>
       </c>
       <c r="J9">
-        <v>1.06788416389505</v>
+        <v>1.028692423855446</v>
       </c>
       <c r="K9">
-        <v>1.067961989329671</v>
+        <v>1.036586100886932</v>
       </c>
       <c r="L9">
-        <v>1.077957889274508</v>
+        <v>1.034584423766768</v>
       </c>
       <c r="M9">
-        <v>1.082863092454155</v>
+        <v>1.04088471453021</v>
       </c>
       <c r="N9">
-        <v>1.026101178212415</v>
+        <v>1.011830269403655</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.059956069141445</v>
+        <v>0.9905834769857998</v>
       </c>
       <c r="D10">
-        <v>1.063071968772416</v>
+        <v>1.013929977069413</v>
       </c>
       <c r="E10">
-        <v>1.072711027930265</v>
+        <v>1.010121148664889</v>
       </c>
       <c r="F10">
-        <v>1.077658247124888</v>
+        <v>1.016642227027861</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042487829605995</v>
+        <v>1.04116576825799</v>
       </c>
       <c r="J10">
-        <v>1.066127130169553</v>
+        <v>1.019175746608625</v>
       </c>
       <c r="K10">
-        <v>1.066423551330736</v>
+        <v>1.0280521953247</v>
       </c>
       <c r="L10">
-        <v>1.076030393676277</v>
+        <v>1.024310035972608</v>
       </c>
       <c r="M10">
-        <v>1.080961323122769</v>
+        <v>1.030717364504289</v>
       </c>
       <c r="N10">
-        <v>1.025489592374622</v>
+        <v>1.008437973451097</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.058963727990521</v>
+        <v>0.9848524916148889</v>
       </c>
       <c r="D11">
-        <v>1.062282861823243</v>
+        <v>1.009441892538363</v>
       </c>
       <c r="E11">
-        <v>1.071754720659648</v>
+        <v>1.004833556006747</v>
       </c>
       <c r="F11">
-        <v>1.076713692687348</v>
+        <v>1.011410764479379</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042267124745111</v>
+        <v>1.039533797003399</v>
       </c>
       <c r="J11">
-        <v>1.065364420186706</v>
+        <v>1.014869289803095</v>
       </c>
       <c r="K11">
-        <v>1.065755189130886</v>
+        <v>1.0241879185203</v>
       </c>
       <c r="L11">
-        <v>1.075194147017711</v>
+        <v>1.019664890608477</v>
       </c>
       <c r="M11">
-        <v>1.080136147706824</v>
+        <v>1.026120651720188</v>
       </c>
       <c r="N11">
-        <v>1.025223697448806</v>
+        <v>1.006901883219771</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.058594906740055</v>
+        <v>0.9826835442502961</v>
       </c>
       <c r="D12">
-        <v>1.061989519897094</v>
+        <v>1.007744631244636</v>
       </c>
       <c r="E12">
-        <v>1.071399348939148</v>
+        <v>1.002834228414037</v>
       </c>
       <c r="F12">
-        <v>1.076362677540509</v>
+        <v>1.009432751612503</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042184795273188</v>
+        <v>1.038914182676881</v>
       </c>
       <c r="J12">
-        <v>1.065080824285194</v>
+        <v>1.013239288418939</v>
       </c>
       <c r="K12">
-        <v>1.065506593070953</v>
+        <v>1.022724945391999</v>
       </c>
       <c r="L12">
-        <v>1.07488327720637</v>
+        <v>1.017907329779196</v>
       </c>
       <c r="M12">
-        <v>1.079829380122</v>
+        <v>1.024381439118759</v>
       </c>
       <c r="N12">
-        <v>1.02512476905163</v>
+        <v>1.006320354311313</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.05867403029894</v>
+        <v>0.9831506706822661</v>
       </c>
       <c r="D13">
-        <v>1.062052453338138</v>
+        <v>1.008110108532365</v>
       </c>
       <c r="E13">
-        <v>1.071475584571679</v>
+        <v>1.003264739440818</v>
       </c>
       <c r="F13">
-        <v>1.076437979075317</v>
+        <v>1.009858668484005</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04220247108595</v>
+        <v>1.039047716532746</v>
       </c>
       <c r="J13">
-        <v>1.065141669847705</v>
+        <v>1.013590348090822</v>
       </c>
       <c r="K13">
-        <v>1.065559933077975</v>
+        <v>1.023040046031706</v>
       </c>
       <c r="L13">
-        <v>1.074949971270532</v>
+        <v>1.018285833673201</v>
       </c>
       <c r="M13">
-        <v>1.079895194700446</v>
+        <v>1.024755990252015</v>
       </c>
       <c r="N13">
-        <v>1.025145996941947</v>
+        <v>1.006445605043643</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.05893324567483</v>
+        <v>0.9846740475312482</v>
       </c>
       <c r="D14">
-        <v>1.062258618860097</v>
+        <v>1.009302227544784</v>
       </c>
       <c r="E14">
-        <v>1.071725348755105</v>
+        <v>1.004669029239484</v>
       </c>
       <c r="F14">
-        <v>1.076684681080086</v>
+        <v>1.011247989737562</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042260326512997</v>
+        <v>1.039482859430753</v>
       </c>
       <c r="J14">
-        <v>1.06534098403902</v>
+        <v>1.014735188923933</v>
       </c>
       <c r="K14">
-        <v>1.065734646997004</v>
+        <v>1.024067565702238</v>
       </c>
       <c r="L14">
-        <v>1.075168455568082</v>
+        <v>1.019520282455001</v>
       </c>
       <c r="M14">
-        <v>1.080110795554212</v>
+        <v>1.025977552646126</v>
       </c>
       <c r="N14">
-        <v>1.025215523335935</v>
+        <v>1.006854042729574</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.059092927235804</v>
+        <v>0.985607211619597</v>
       </c>
       <c r="D15">
-        <v>1.062385613284619</v>
+        <v>1.010032652407086</v>
       </c>
       <c r="E15">
-        <v>1.071879215763014</v>
+        <v>1.00552948806139</v>
       </c>
       <c r="F15">
-        <v>1.076836660197991</v>
+        <v>1.012099289479911</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042295926736019</v>
+        <v>1.039749155074894</v>
       </c>
       <c r="J15">
-        <v>1.065463749302343</v>
+        <v>1.01543645592139</v>
       </c>
       <c r="K15">
-        <v>1.065842249264692</v>
+        <v>1.024696925153722</v>
       </c>
       <c r="L15">
-        <v>1.075303037573926</v>
+        <v>1.020276522014505</v>
       </c>
       <c r="M15">
-        <v>1.0802435996379</v>
+        <v>1.026725901399791</v>
       </c>
       <c r="N15">
-        <v>1.025258339164755</v>
+        <v>1.00710421524872</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.060021896902317</v>
+        <v>0.9909583856017804</v>
       </c>
       <c r="D16">
-        <v>1.063124306882058</v>
+        <v>1.014223745281012</v>
       </c>
       <c r="E16">
-        <v>1.072774473287852</v>
+        <v>1.010467293064615</v>
       </c>
       <c r="F16">
-        <v>1.07772091122013</v>
+        <v>1.016984708215344</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042502428099097</v>
+        <v>1.041272249549366</v>
       </c>
       <c r="J16">
-        <v>1.066177708154072</v>
+        <v>1.019457434013601</v>
       </c>
       <c r="K16">
-        <v>1.066467861392006</v>
+        <v>1.028304910546502</v>
       </c>
       <c r="L16">
-        <v>1.076085857800451</v>
+        <v>1.024613964280948</v>
       </c>
       <c r="M16">
-        <v>1.081016051056741</v>
+        <v>1.031018126121418</v>
       </c>
       <c r="N16">
-        <v>1.025507216159794</v>
+        <v>1.008538431798422</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.060604228389394</v>
+        <v>0.9942472536127377</v>
       </c>
       <c r="D17">
-        <v>1.063587261096189</v>
+        <v>1.016801658220775</v>
       </c>
       <c r="E17">
-        <v>1.073335772580632</v>
+        <v>1.013505096292687</v>
       </c>
       <c r="F17">
-        <v>1.078275290273239</v>
+        <v>1.019990416440548</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042631339474225</v>
+        <v>1.042204795274208</v>
       </c>
       <c r="J17">
-        <v>1.066625042319981</v>
+        <v>1.021928310601737</v>
       </c>
       <c r="K17">
-        <v>1.066859696727048</v>
+        <v>1.030521370089696</v>
       </c>
       <c r="L17">
-        <v>1.076576460119445</v>
+        <v>1.02728040451185</v>
       </c>
       <c r="M17">
-        <v>1.081500131089885</v>
+        <v>1.03365679052519</v>
       </c>
       <c r="N17">
-        <v>1.025663041262156</v>
+        <v>1.009419511149396</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.06094375559702</v>
+        <v>0.9961422559887954</v>
       </c>
       <c r="D18">
-        <v>1.063857148786213</v>
+        <v>1.018287688939405</v>
       </c>
       <c r="E18">
-        <v>1.073663072989896</v>
+        <v>1.015256470643718</v>
       </c>
       <c r="F18">
-        <v>1.078598548343681</v>
+        <v>1.021723328285063</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042706307919535</v>
+        <v>1.042740802281259</v>
       </c>
       <c r="J18">
-        <v>1.06688578155918</v>
+        <v>1.023351800649261</v>
       </c>
       <c r="K18">
-        <v>1.067088034896889</v>
+        <v>1.03179804682896</v>
       </c>
       <c r="L18">
-        <v>1.076862463443307</v>
+        <v>1.028816953329436</v>
       </c>
       <c r="M18">
-        <v>1.081782323464912</v>
+        <v>1.035177335940853</v>
       </c>
       <c r="N18">
-        <v>1.025753827883322</v>
+        <v>1.009927009093289</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.0610595026094</v>
+        <v>0.9967845423518518</v>
       </c>
       <c r="D19">
-        <v>1.063949148959247</v>
+        <v>1.018791467916886</v>
       </c>
       <c r="E19">
-        <v>1.073774657888241</v>
+        <v>1.015850247163248</v>
       </c>
       <c r="F19">
-        <v>1.078708753905997</v>
+        <v>1.022310851716534</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042731832388378</v>
+        <v>1.042922249009048</v>
       </c>
       <c r="J19">
-        <v>1.066974655993809</v>
+        <v>1.023834237392424</v>
       </c>
       <c r="K19">
-        <v>1.067165856369845</v>
+        <v>1.032230684645144</v>
       </c>
       <c r="L19">
-        <v>1.076959956783697</v>
+        <v>1.029337773495064</v>
       </c>
       <c r="M19">
-        <v>1.081878516244538</v>
+        <v>1.035692731638356</v>
       </c>
       <c r="N19">
-        <v>1.025784766269314</v>
+        <v>1.010098988117317</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.060541763946943</v>
+        <v>0.9938968268678995</v>
       </c>
       <c r="D20">
-        <v>1.063537605594839</v>
+        <v>1.016526912152294</v>
       </c>
       <c r="E20">
-        <v>1.073275560452577</v>
+        <v>1.013181312081535</v>
       </c>
       <c r="F20">
-        <v>1.07821582122828</v>
+        <v>1.019670048649688</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042617531622165</v>
+        <v>1.042105568905289</v>
       </c>
       <c r="J20">
-        <v>1.066577066588469</v>
+        <v>1.021665059920793</v>
       </c>
       <c r="K20">
-        <v>1.066817678544626</v>
+        <v>1.030285250190721</v>
       </c>
       <c r="L20">
-        <v>1.076523839385776</v>
+        <v>1.026996277311053</v>
       </c>
       <c r="M20">
-        <v>1.08144821081836</v>
+        <v>1.033375622646402</v>
       </c>
       <c r="N20">
-        <v>1.025646333424462</v>
+        <v>1.009325649675669</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.058856919384868</v>
+        <v>0.9842265909220529</v>
       </c>
       <c r="D21">
-        <v>1.06219791471091</v>
+        <v>1.008952032857368</v>
       </c>
       <c r="E21">
-        <v>1.071651803804158</v>
+        <v>1.004256500619206</v>
       </c>
       <c r="F21">
-        <v>1.076612038110059</v>
+        <v>1.010839855629612</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042243299204417</v>
+        <v>1.03935509973296</v>
       </c>
       <c r="J21">
-        <v>1.065282299068033</v>
+        <v>1.014398922429485</v>
       </c>
       <c r="K21">
-        <v>1.065683207432404</v>
+        <v>1.023765768074708</v>
       </c>
       <c r="L21">
-        <v>1.075104124352753</v>
+        <v>1.019157678528245</v>
       </c>
       <c r="M21">
-        <v>1.080047313719523</v>
+        <v>1.025618733156925</v>
       </c>
       <c r="N21">
-        <v>1.025195054064917</v>
+        <v>1.006734077918353</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.057796305045098</v>
+        <v>0.9779118616481712</v>
       </c>
       <c r="D22">
-        <v>1.061354250323968</v>
+        <v>1.004013296201886</v>
       </c>
       <c r="E22">
-        <v>1.070629974146045</v>
+        <v>0.9984392322419787</v>
       </c>
       <c r="F22">
-        <v>1.075602714902509</v>
+        <v>1.005084805610173</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042005979328936</v>
+        <v>1.03754751123533</v>
       </c>
       <c r="J22">
-        <v>1.064466538282341</v>
+        <v>1.009653097855319</v>
       </c>
       <c r="K22">
-        <v>1.064967970669562</v>
+        <v>1.019505665964721</v>
       </c>
       <c r="L22">
-        <v>1.07421004048619</v>
+        <v>1.01404167178378</v>
       </c>
       <c r="M22">
-        <v>1.079165002924417</v>
+        <v>1.020556200056502</v>
       </c>
       <c r="N22">
-        <v>1.024910371796917</v>
+        <v>1.005040753374836</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.058358681190452</v>
+        <v>0.9812829413547194</v>
       </c>
       <c r="D23">
-        <v>1.061801622223779</v>
+        <v>1.006649013925003</v>
       </c>
       <c r="E23">
-        <v>1.071171753761238</v>
+        <v>1.001543688941903</v>
       </c>
       <c r="F23">
-        <v>1.076137869450415</v>
+        <v>1.008155999240193</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042131979658578</v>
+        <v>1.03851352196713</v>
       </c>
       <c r="J23">
-        <v>1.064899150485322</v>
+        <v>1.012186676372847</v>
       </c>
       <c r="K23">
-        <v>1.065347317632425</v>
+        <v>1.021780106507432</v>
       </c>
       <c r="L23">
-        <v>1.0746841509462</v>
+        <v>1.016772522916164</v>
       </c>
       <c r="M23">
-        <v>1.07963287775225</v>
+        <v>1.023258487969528</v>
       </c>
       <c r="N23">
-        <v>1.025061377432855</v>
+        <v>1.00594479040051</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.06056998936305</v>
+        <v>0.9940552414968502</v>
       </c>
       <c r="D24">
-        <v>1.063560043228949</v>
+        <v>1.016651112350095</v>
       </c>
       <c r="E24">
-        <v>1.073302768018343</v>
+        <v>1.013327679436965</v>
       </c>
       <c r="F24">
-        <v>1.078242693044957</v>
+        <v>1.019814871478901</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042623771486508</v>
+        <v>1.04215042946814</v>
       </c>
       <c r="J24">
-        <v>1.066598745322846</v>
+        <v>1.021784066179555</v>
       </c>
       <c r="K24">
-        <v>1.066836665410277</v>
+        <v>1.0303919923434</v>
       </c>
       <c r="L24">
-        <v>1.076547616914821</v>
+        <v>1.02712471988024</v>
       </c>
       <c r="M24">
-        <v>1.081471671859142</v>
+        <v>1.033502727417536</v>
       </c>
       <c r="N24">
-        <v>1.025653883297145</v>
+        <v>1.009368081413741</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.063130745655262</v>
+        <v>1.007970101885564</v>
       </c>
       <c r="D25">
-        <v>1.065594896230092</v>
+        <v>1.027573057977474</v>
       </c>
       <c r="E25">
-        <v>1.075771949209038</v>
+        <v>1.026204850239314</v>
       </c>
       <c r="F25">
-        <v>1.0806812501128</v>
+        <v>1.032556829762172</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043185712163715</v>
+        <v>1.046062228963362</v>
       </c>
       <c r="J25">
-        <v>1.068563862875653</v>
+        <v>1.03223218549224</v>
       </c>
       <c r="K25">
-        <v>1.068556641381309</v>
+        <v>1.039757902151061</v>
       </c>
       <c r="L25">
-        <v>1.078703938655867</v>
+        <v>1.038409546888433</v>
       </c>
       <c r="M25">
-        <v>1.083599103455468</v>
+        <v>1.044669923353664</v>
       </c>
       <c r="N25">
-        <v>1.026337398493371</v>
+        <v>1.013090962136016</v>
       </c>
     </row>
   </sheetData>
